--- a/MVP.Generate.Excel/Template/UCash_Point.xlsx
+++ b/MVP.Generate.Excel/Template/UCash_Point.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\MVP.Generate.Excel\MVP.Generate.Excel\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\mvp_report\MVP.Generate.Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2C71B-68DA-4312-84C1-2F227AA21235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UCash Points" sheetId="1" r:id="rId1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -263,17 +264,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,11 +281,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,160 +574,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
